--- a/Yujie-plot/其他/datasetAttTable/UAVDT_att.xlsx
+++ b/Yujie-plot/其他/datasetAttTable/UAVDT_att.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\hyj-small-repo\v4r-matlab-plot\其他\datasetAttTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\hyj-small-repo\v4r-matlab-plot\Yujie-plot\其他\datasetAttTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CDF44C4-6634-44F4-999E-EDF30AC92D2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4CF61A28-6867-4C0F-84EB-1FF8978B446E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="732" windowWidth="16404" windowHeight="9420" xr2:uid="{45ABFCAA-ED6F-4E14-BCAB-5BE238A78E8E}"/>
+    <workbookView xWindow="1428" yWindow="1428" windowWidth="16404" windowHeight="9420" xr2:uid="{6A4A706C-6C7C-443F-9D3C-9F88476A52AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -197,25 +197,25 @@
     <t>CM</t>
   </si>
   <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>SO</t>
+  </si>
+  <si>
     <t>IV</t>
   </si>
   <si>
+    <t>OB</t>
+  </si>
+  <si>
+    <t>SV</t>
+  </si>
+  <si>
+    <t>LTT</t>
+  </si>
+  <si>
     <t>LO</t>
-  </si>
-  <si>
-    <t>LTT</t>
-  </si>
-  <si>
-    <t>OB</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>SV</t>
-  </si>
-  <si>
-    <t>SO</t>
   </si>
 </sst>
 </file>
@@ -578,7 +578,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F94C8ED5-55C0-432D-8024-B74F5E56EA76}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F00FF2F-C2CC-499E-AF9D-C6C55F2B4D41}">
   <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -589,13 +589,13 @@
     <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.21875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -2390,7 +2390,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91E184EF-07AB-4B77-84ED-6B17EF636F5B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BC6FE05-4E3C-4001-B11A-34CE8DAC0B3E}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2403,7 +2403,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98574DA7-589F-4664-A789-95C7051023D0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D046D52-6D77-4FE1-ACA0-30EC35F946CD}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
